--- a/BackTest/2020-01-15 BackTest LTC.xlsx
+++ b/BackTest/2020-01-15 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-167.68066225</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-168.03066225</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>56000</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-149.29156225</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55950</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-149.29156225</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56050</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-186.54076225</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56050</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-186.54076225</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>56000</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-186.54076225</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56000</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,15 +718,17 @@
         <v>-184.13996225</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>56000</v>
       </c>
-      <c r="J9" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,17 +757,15 @@
         <v>-1187.21876225</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>56200</v>
       </c>
-      <c r="J10" t="n">
-        <v>56000</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -760,15 +796,15 @@
         <v>-1187.21876225</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>56000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -799,11 +835,17 @@
         <v>-1227.21876225</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>56100</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,11 +874,17 @@
         <v>-1227.21876225</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>56050</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +913,17 @@
         <v>-1251.75006225</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56050</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -898,15 +952,17 @@
         <v>-1241.74996225</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>55800</v>
       </c>
-      <c r="J15" t="n">
-        <v>55800</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -935,17 +991,15 @@
         <v>-1271.72896225</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>55900</v>
       </c>
-      <c r="J16" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -976,15 +1030,15 @@
         <v>-1297.81196225</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55850</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1015,14 +1069,12 @@
         <v>-1161.21206225</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>55800</v>
       </c>
-      <c r="J18" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1056,14 +1108,12 @@
         <v>-1227.95886225</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>55900</v>
       </c>
-      <c r="J19" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1097,14 +1147,12 @@
         <v>-1240.85326225</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>55800</v>
       </c>
-      <c r="J20" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1138,14 +1186,12 @@
         <v>-1240.47026225</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>55700</v>
       </c>
-      <c r="J21" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1179,14 +1225,12 @@
         <v>-1252.37026225</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>55800</v>
       </c>
-      <c r="J22" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1220,14 +1264,12 @@
         <v>-1241.53906225</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>55550</v>
       </c>
-      <c r="J23" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1261,14 +1303,12 @@
         <v>-1241.43906225</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>55600</v>
       </c>
-      <c r="J24" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,14 +1342,12 @@
         <v>-1241.43906225</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>55700</v>
       </c>
-      <c r="J25" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1343,14 +1381,12 @@
         <v>-1241.43906225</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>55700</v>
       </c>
-      <c r="J26" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,14 +1420,12 @@
         <v>-1241.43906225</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>55700</v>
       </c>
-      <c r="J27" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1425,14 +1459,12 @@
         <v>-1241.43906225</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>55700</v>
       </c>
-      <c r="J28" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,14 +1498,12 @@
         <v>-1238.32726225</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>55700</v>
       </c>
-      <c r="J29" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,14 +1537,12 @@
         <v>-1248.50016225</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>55800</v>
       </c>
-      <c r="J30" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1548,14 +1576,12 @@
         <v>-1198.50016225</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>55750</v>
       </c>
-      <c r="J31" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,14 +1615,12 @@
         <v>-1198.50016225</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>55800</v>
       </c>
-      <c r="J32" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,14 +1654,12 @@
         <v>-1197.26176225</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>55800</v>
       </c>
-      <c r="J33" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,14 +1693,12 @@
         <v>-1197.85946225</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>55850</v>
       </c>
-      <c r="J34" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,14 +1732,12 @@
         <v>-1197.85946225</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>55800</v>
       </c>
-      <c r="J35" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,14 +1771,12 @@
         <v>-1237.85946225</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>55800</v>
       </c>
-      <c r="J36" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1794,14 +1810,12 @@
         <v>-1237.49376225</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>55750</v>
       </c>
-      <c r="J37" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,14 +1849,12 @@
         <v>-1157.49376225</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>55850</v>
       </c>
-      <c r="J38" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,14 +1888,12 @@
         <v>-1158.14246225</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>55900</v>
       </c>
-      <c r="J39" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,14 +1927,12 @@
         <v>-862.8541622500004</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>55800</v>
       </c>
-      <c r="J40" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,14 +1966,12 @@
         <v>-882.8541622500004</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>55900</v>
       </c>
-      <c r="J41" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,14 +2005,12 @@
         <v>-882.8313357700004</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>55800</v>
       </c>
-      <c r="J42" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,14 +2044,12 @@
         <v>-882.7829357700003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>55850</v>
       </c>
-      <c r="J43" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,14 +2083,12 @@
         <v>-873.6815357700003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>55950</v>
       </c>
-      <c r="J44" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,14 +2122,12 @@
         <v>-873.6708357700003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>56050</v>
       </c>
-      <c r="J45" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,14 +2161,12 @@
         <v>-893.4644357700003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>56100</v>
       </c>
-      <c r="J46" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,14 +2200,12 @@
         <v>-893.4644357700003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>56050</v>
       </c>
-      <c r="J47" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2245,14 +2239,12 @@
         <v>-664.8283357700002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>56050</v>
       </c>
-      <c r="J48" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,14 +2278,12 @@
         <v>-664.8283357700002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>56100</v>
       </c>
-      <c r="J49" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,14 +2317,12 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>56100</v>
       </c>
-      <c r="J50" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,14 +2356,12 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>56000</v>
       </c>
-      <c r="J51" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,12 +2395,12 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,12 +2434,12 @@
         <v>-670.8601357700002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,14 +2473,12 @@
         <v>-656.2109357700002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>56050</v>
       </c>
-      <c r="J54" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,14 +2512,12 @@
         <v>-702.2109357700002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>56150</v>
       </c>
-      <c r="J55" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,14 +2551,12 @@
         <v>-702.9268357700003</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>56100</v>
       </c>
-      <c r="J56" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,12 +2590,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,12 +2629,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,12 +2668,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,12 +2707,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,12 +2746,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,12 +2785,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,12 +2824,12 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,12 +2863,12 @@
         <v>-698.7481357700002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,12 +2902,12 @@
         <v>-678.2264357700002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,12 +2941,12 @@
         <v>-778.2264357700002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,12 +2980,12 @@
         <v>-771.3384357700002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,12 +3019,12 @@
         <v>-771.4884357700001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3078,12 +3058,12 @@
         <v>-781.9141357700001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,12 +3097,12 @@
         <v>-783.9141357700001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,12 +3136,12 @@
         <v>-780.1062357700001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,12 +3175,12 @@
         <v>-818.6065357700002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,12 +3214,12 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,12 +3253,12 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,12 +3292,12 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,12 +3331,12 @@
         <v>-828.7113357700001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,12 +3370,12 @@
         <v>-864.5040357700001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,14 +3409,12 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>56050</v>
       </c>
-      <c r="J78" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,14 +3448,12 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>56200</v>
       </c>
-      <c r="J79" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3487,12 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,14 +3526,12 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>56350</v>
       </c>
-      <c r="J81" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,12 +3565,12 @@
         <v>-910.6666357700001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,12 +3604,12 @@
         <v>-914.7885357700001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,12 +3643,12 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,12 +3682,12 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,12 +3721,12 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,12 +3760,12 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,12 +3799,12 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,12 +3838,12 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,12 +3877,12 @@
         <v>-808.8074357700001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,12 +3916,12 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,12 +3955,12 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,12 +3994,12 @@
         <v>-762.2661357700001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,12 +4033,12 @@
         <v>-933.0365357700001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,12 +4072,12 @@
         <v>-940.0990357700001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,12 +4111,12 @@
         <v>-937.0176357700001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,12 +4150,12 @@
         <v>-942.52553577</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,12 +4189,12 @@
         <v>-939.44143577</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,12 +4228,12 @@
         <v>-940.46683577</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,12 +4267,12 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,12 +4306,12 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,12 +4345,12 @@
         <v>-1054.73893577</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,12 +4384,12 @@
         <v>-1055.73893577</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,12 +4423,12 @@
         <v>-1113.18523577</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,12 +4462,12 @@
         <v>-1112.91623577</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,12 +4501,12 @@
         <v>-1103.94113577</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,12 +4540,12 @@
         <v>-1100.85153577</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,12 +4579,12 @@
         <v>-1103.94393577</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,12 +4618,12 @@
         <v>-1110.96273577</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,12 +4657,12 @@
         <v>-1111.07523577</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,12 +4696,12 @@
         <v>-1110.81053577</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,12 +4735,12 @@
         <v>-1110.81053577</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,12 +4774,12 @@
         <v>-1110.81053577</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,12 +4813,12 @@
         <v>-1110.81053577</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,12 +4852,12 @@
         <v>-1107.72643577</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,12 +4891,12 @@
         <v>-1109.02723577</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>56250</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,12 +4930,12 @@
         <v>-1144.56103577</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,12 +4969,12 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,12 +5008,12 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,12 +5047,12 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,12 +5086,12 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,12 +5125,12 @@
         <v>-1142.90883577</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,12 +5164,12 @@
         <v>-1142.90883577</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,12 +5203,12 @@
         <v>-1142.82976104</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,12 +5242,12 @@
         <v>-1142.82976104</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,12 +5281,12 @@
         <v>-1144.37366104</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,12 +5320,12 @@
         <v>-1144.37366104</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,12 +5359,12 @@
         <v>-1144.37366104</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,12 +5398,12 @@
         <v>-968.7225610399996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,12 +5437,12 @@
         <v>-971.8149610399996</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,12 +5476,12 @@
         <v>-968.7253610399996</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,12 +5515,12 @@
         <v>-970.9599610399996</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>56200</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,12 +5554,12 @@
         <v>-870.1706610399996</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,12 +5593,12 @@
         <v>-817.0675383499996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,12 +5632,12 @@
         <v>-840.0742383499996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,12 +5671,12 @@
         <v>-832.6819383499997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,12 +5710,12 @@
         <v>-854.6322383499996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>56500</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,12 +5749,12 @@
         <v>-811.6669383499997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,12 +5788,12 @@
         <v>-811.6669383499997</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,12 +5827,12 @@
         <v>-708.0839383499997</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,12 +5866,12 @@
         <v>-674.9225383499997</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>56600</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,12 +5905,12 @@
         <v>-693.9253383499997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>55800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>56750</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,9 +5947,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,9 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6051,9 +6021,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6090,9 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6129,9 +6095,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6168,9 +6132,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6207,9 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,9 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,9 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6324,9 +6280,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6363,9 +6317,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6402,9 +6354,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6441,9 +6391,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,9 +6428,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,9 +6465,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6558,9 +6502,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,9 +6539,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6636,9 +6576,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,9 +6613,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,9 +6650,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6753,9 +6687,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6792,9 +6724,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,9 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,9 +6798,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,9 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,9 +6872,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6987,9 +6909,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,9 +6946,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7065,9 +6983,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,9 +7020,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7143,9 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,9 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,9 +7131,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,9 +7168,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,9 +7205,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,9 +7242,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,9 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7416,9 +7316,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,9 +7353,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7494,9 +7390,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,9 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,9 +7464,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,9 +7501,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7650,9 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,9 +7575,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,9 +7612,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7767,9 +7649,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,9 +7686,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,9 +7723,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,9 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7923,9 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7962,9 +7834,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,9 +7871,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8040,9 +7908,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,9 +7945,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8118,9 +7982,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,9 +8019,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8196,9 +8056,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8235,9 +8093,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8274,9 +8130,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,9 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8352,9 +8204,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,9 +8241,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8430,9 +8278,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8466,12 +8312,10 @@
         <v>3263.587559200001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8505,12 +8349,10 @@
         <v>3681.171067560001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8544,12 +8386,10 @@
         <v>3136.741667560001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,12 +8423,10 @@
         <v>3085.590467560001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,12 +8460,10 @@
         <v>3080.722395990001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8661,12 +8497,10 @@
         <v>2798.529395990001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8703,9 +8537,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8742,9 +8574,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8778,12 +8608,10 @@
         <v>3107.533295990001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,9 +8648,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,9 +8685,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8898,9 +8722,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8937,9 +8759,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8976,9 +8796,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9015,9 +8833,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9054,9 +8870,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9090,12 +8904,10 @@
         <v>1647.595095990001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,12 +8941,10 @@
         <v>1915.916395990001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,12 +8978,10 @@
         <v>1770.413795990001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9207,12 +9015,10 @@
         <v>1962.76479599</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,12 +9052,10 @@
         <v>1962.76479599</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9285,12 +9089,10 @@
         <v>1934.32309599</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9324,12 +9126,10 @@
         <v>1998.44909599</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,12 +9163,10 @@
         <v>1999.60499599</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9402,12 +9200,10 @@
         <v>2002.51439599</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,12 +9237,10 @@
         <v>2004.20799599</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9480,12 +9274,10 @@
         <v>2003.54579599</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9522,9 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9561,9 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,9 +9388,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9639,9 +9425,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,9 +9462,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9717,9 +9499,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,9 +9536,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9795,9 +9573,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,9 +9610,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,9 +9647,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,9 +9684,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9951,9 +9721,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,9 +9758,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,9 +9795,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,9 +9832,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,9 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10146,9 +9906,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10185,9 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,9 +9980,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,9 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,9 +10054,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10338,23 +10088,19 @@
         <v>2493.813495990001</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>55800</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.055931899641577</v>
-      </c>
-      <c r="M255" t="n">
-        <v>1.007168458781362</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10383,7 +10129,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +10166,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +10203,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10240,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +10277,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +10314,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +10351,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10388,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +10425,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +10462,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +10499,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +10536,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +10573,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +10610,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +10647,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +10684,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +10717,15 @@
         <v>3632.811536450001</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +10754,15 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +10791,15 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11006,11 +10828,15 @@
         <v>3633.950336450001</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +10865,15 @@
         <v>3623.950336450001</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +10902,15 @@
         <v>3623.258636450002</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10939,15 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +10976,15 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +11013,15 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11204,11 +11050,15 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +11091,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +11128,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +11165,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +11202,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +11239,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +11276,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11439,7 +11313,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +11350,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +11387,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11534,11 +11420,15 @@
         <v>3857.771929050002</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11567,11 +11457,15 @@
         <v>3635.872429050002</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11600,11 +11494,15 @@
         <v>3637.454129050002</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +11535,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11670,7 +11572,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +11609,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11736,7 +11646,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +11683,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11798,11 +11716,15 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +11757,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +11794,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11901,7 +11831,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +11868,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11967,7 +11905,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11996,11 +11938,15 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12033,7 +11979,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12062,11 +12012,15 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12099,7 +12053,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12128,11 +12086,15 @@
         <v>4706.459429050003</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12165,7 +12127,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12198,7 +12164,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12231,7 +12201,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12264,7 +12238,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +12271,15 @@
         <v>4617.268529050003</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +12308,15 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +12345,15 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12392,11 +12382,15 @@
         <v>4611.390216730003</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +12423,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +12456,15 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +12493,15 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12524,11 +12530,15 @@
         <v>4927.082116730003</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12557,11 +12567,15 @@
         <v>5335.934549230003</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12590,11 +12604,15 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +12645,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12678,15 @@
         <v>5021.534349230003</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12693,7 +12719,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +12752,15 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12759,7 +12793,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12788,11 +12826,15 @@
         <v>5029.699999170004</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12825,7 +12867,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12854,11 +12900,15 @@
         <v>5121.991399170004</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12887,11 +12937,15 @@
         <v>5116.354299170004</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +12974,15 @@
         <v>5117.826719900004</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12953,11 +13011,15 @@
         <v>5183.409219900004</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12986,11 +13048,15 @@
         <v>5219.551686560004</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13019,11 +13085,15 @@
         <v>5119.072186560004</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13052,11 +13122,15 @@
         <v>5120.417086560004</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13085,11 +13159,15 @@
         <v>4733.278386560003</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +13196,15 @@
         <v>4549.090786560003</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13155,7 +13237,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13188,7 +13274,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13221,7 +13311,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13254,7 +13348,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13287,7 +13385,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13316,11 +13418,15 @@
         <v>1881.078886560003</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13353,7 +13459,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13382,11 +13492,15 @@
         <v>1315.979786560002</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13415,11 +13529,15 @@
         <v>1315.979786560002</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13452,7 +13570,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13485,7 +13607,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13518,7 +13644,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13551,7 +13681,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +13718,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13617,7 +13755,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13646,11 +13788,15 @@
         <v>1494.425286560003</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13679,11 +13825,15 @@
         <v>1494.425286560003</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +13862,15 @@
         <v>1388.582986560003</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13745,11 +13899,15 @@
         <v>1390.096586560003</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13778,11 +13936,15 @@
         <v>1362.624686560003</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13811,11 +13973,15 @@
         <v>1428.682486560003</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13844,11 +14010,15 @@
         <v>1473.044886560003</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13877,11 +14047,15 @@
         <v>1473.044886560003</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13914,7 +14088,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +14125,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13976,11 +14158,15 @@
         <v>1225.284586560002</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +14195,15 @@
         <v>1225.284586560002</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14042,11 +14232,15 @@
         <v>1087.850886560002</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14075,11 +14269,15 @@
         <v>1051.448786560002</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14108,11 +14306,15 @@
         <v>1051.448786560002</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14141,11 +14343,15 @@
         <v>1051.448786560002</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +14384,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14207,11 +14417,15 @@
         <v>1017.772086560002</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +14458,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14277,7 +14495,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14310,7 +14532,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14343,7 +14569,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14376,7 +14606,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14409,7 +14643,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14442,7 +14680,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +14717,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14508,7 +14754,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14541,7 +14791,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14574,7 +14828,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14607,7 +14865,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14640,7 +14902,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14673,7 +14939,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14706,7 +14976,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14739,7 +15013,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14772,7 +15050,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14805,7 +15087,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14838,7 +15124,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14871,7 +15161,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14904,7 +15198,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14937,7 +15235,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14970,7 +15272,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15003,7 +15309,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15036,7 +15346,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15069,7 +15383,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +15420,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +15457,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15168,7 +15494,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15201,7 +15531,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15234,7 +15568,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +15605,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +15642,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +15679,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15366,7 +15716,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15399,7 +15753,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15432,7 +15790,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15465,7 +15827,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15498,7 +15864,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15531,7 +15901,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15564,7 +15938,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15597,7 +15975,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +16012,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15663,7 +16049,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15696,7 +16086,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15729,7 +16123,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15762,7 +16160,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15795,7 +16197,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15828,7 +16234,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15861,7 +16271,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +16308,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15927,7 +16345,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15960,7 +16382,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15993,7 +16419,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16026,7 +16456,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16059,7 +16493,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +16530,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16125,7 +16567,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16158,7 +16604,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16191,7 +16641,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16224,7 +16678,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +16715,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16290,7 +16752,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16323,7 +16789,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16356,7 +16826,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16389,7 +16863,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16422,7 +16900,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16455,7 +16937,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16488,7 +16974,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16521,7 +17011,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16554,7 +17048,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16587,7 +17085,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16620,7 +17122,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16653,7 +17159,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16686,7 +17196,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16719,7 +17233,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16752,7 +17270,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16785,7 +17307,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16818,7 +17344,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16851,7 +17381,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16884,7 +17418,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16917,7 +17455,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16950,7 +17492,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16983,7 +17529,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17016,7 +17566,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +17603,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17082,7 +17640,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17115,7 +17677,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17148,7 +17714,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17181,7 +17751,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17214,7 +17788,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17247,7 +17825,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17280,7 +17862,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17313,7 +17899,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17346,7 +17936,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17379,7 +17973,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17412,7 +18010,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17445,7 +18047,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17478,7 +18084,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17511,7 +18121,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17544,7 +18158,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17577,7 +18195,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17610,7 +18232,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +18269,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17676,7 +18306,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17709,7 +18343,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17742,7 +18380,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17775,7 +18417,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17808,7 +18454,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17841,7 +18491,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17874,7 +18528,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17907,7 +18565,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17940,7 +18602,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17973,7 +18639,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18006,7 +18676,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18039,7 +18713,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18072,7 +18750,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18105,7 +18787,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18138,7 +18824,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18171,7 +18861,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18204,7 +18898,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18237,7 +18935,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18270,7 +18972,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18303,7 +19009,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18336,7 +19046,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18369,7 +19083,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18402,7 +19120,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18435,7 +19157,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18468,7 +19194,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18501,7 +19231,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18534,7 +19268,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18567,7 +19305,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18600,7 +19342,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18633,7 +19379,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18666,7 +19416,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18699,7 +19453,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18732,7 +19490,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18765,7 +19527,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +19564,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18831,7 +19601,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18860,11 +19634,15 @@
         <v>3125.512688760002</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18897,7 +19675,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18930,7 +19712,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18963,7 +19749,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18996,7 +19786,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19029,7 +19823,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19062,7 +19860,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19095,7 +19897,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19128,7 +19934,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19161,7 +19971,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19194,7 +20008,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19227,7 +20045,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19256,11 +20078,15 @@
         <v>3044.008984440002</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19289,11 +20115,15 @@
         <v>3044.292184440002</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19322,11 +20152,15 @@
         <v>3050.286384440002</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19355,11 +20189,15 @@
         <v>3050.360021550002</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +20226,15 @@
         <v>3050.360021550002</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19421,11 +20263,15 @@
         <v>3031.354021550002</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19454,11 +20300,15 @@
         <v>3046.115021550002</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19487,11 +20337,15 @@
         <v>3161.131421550002</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19520,11 +20374,15 @@
         <v>3146.104921550002</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19553,11 +20411,15 @@
         <v>3459.580021550003</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19586,11 +20448,15 @@
         <v>3552.407821550003</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19619,11 +20485,15 @@
         <v>3552.407821550003</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19652,11 +20522,15 @@
         <v>3552.407821550003</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19685,11 +20559,15 @@
         <v>3549.552021550003</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19718,11 +20596,15 @@
         <v>3549.552021550003</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19751,11 +20633,15 @@
         <v>3549.552021550003</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19784,11 +20670,15 @@
         <v>3594.198821550003</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19817,11 +20707,15 @@
         <v>3594.198821550003</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19850,11 +20744,15 @@
         <v>3953.162121550003</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19883,11 +20781,15 @@
         <v>3896.732719750003</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19916,11 +20818,15 @@
         <v>3818.350319750003</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19949,11 +20855,15 @@
         <v>3991.898219750003</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19982,11 +20892,15 @@
         <v>3508.739219750003</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20015,11 +20929,15 @@
         <v>3508.739219750003</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20048,11 +20966,15 @@
         <v>3508.739219750003</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20081,11 +21003,15 @@
         <v>3508.739219750003</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20114,11 +21040,15 @@
         <v>3508.739219750003</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20147,11 +21077,15 @@
         <v>3521.494019750003</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20180,11 +21114,15 @@
         <v>3521.494019750003</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20213,11 +21151,15 @@
         <v>3520.642219750003</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20246,11 +21188,15 @@
         <v>3520.642219750003</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20279,11 +21225,15 @@
         <v>3602.441369380003</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20312,11 +21262,15 @@
         <v>3599.597169380003</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20345,11 +21299,15 @@
         <v>3599.597169380003</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20378,11 +21336,15 @@
         <v>3539.115769380003</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20411,11 +21373,15 @@
         <v>3539.115769380003</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20444,11 +21410,15 @@
         <v>3539.115769380003</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20477,11 +21447,15 @@
         <v>3532.538369380003</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20514,7 +21488,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20547,7 +21525,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20580,7 +21562,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20613,7 +21599,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20646,7 +21636,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20679,7 +21673,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20712,7 +21710,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20741,14 +21743,16 @@
         <v>3502.656169380003</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="inlineStr"/>
     </row>
     <row r="571">
@@ -20807,7 +21811,7 @@
         <v>3499.269569380003</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20840,7 +21844,7 @@
         <v>3164.865769380003</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20873,7 +21877,7 @@
         <v>3494.010569380003</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20906,7 +21910,7 @@
         <v>3682.212369380003</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20939,7 +21943,7 @@
         <v>3746.291969380003</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20972,7 +21976,7 @@
         <v>3646.291969380003</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21005,7 +22009,7 @@
         <v>3644.041969380003</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21038,7 +22042,7 @@
         <v>3735.964969380003</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21071,7 +22075,7 @@
         <v>3685.767469380003</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21104,7 +22108,7 @@
         <v>3816.613169380003</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21137,7 +22141,7 @@
         <v>3836.666269380003</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21170,7 +22174,7 @@
         <v>3836.632969380003</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21203,7 +22207,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21236,7 +22240,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21269,7 +22273,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22721,7 +23725,7 @@
         <v>3417.124768830003</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22754,7 +23758,7 @@
         <v>3417.124768830003</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22787,7 +23791,7 @@
         <v>3294.267268830003</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22820,7 +23824,7 @@
         <v>3294.267268830003</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22853,7 +23857,7 @@
         <v>3294.276268830003</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22886,7 +23890,7 @@
         <v>3276.032268830003</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22919,7 +23923,7 @@
         <v>3276.032268830003</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22952,7 +23956,7 @@
         <v>3276.032268830003</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22985,7 +23989,7 @@
         <v>3276.032268830003</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23018,7 +24022,7 @@
         <v>3288.672168830003</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23051,7 +24055,7 @@
         <v>3293.192068830002</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23084,7 +24088,7 @@
         <v>3293.192068830002</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23117,7 +24121,7 @@
         <v>3327.304368830002</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23150,7 +24154,7 @@
         <v>3327.304368830002</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23183,7 +24187,7 @@
         <v>3363.856368830002</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23216,7 +24220,7 @@
         <v>3303.856368830002</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23249,7 +24253,7 @@
         <v>3303.856368830002</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23282,7 +24286,7 @@
         <v>3296.625768830002</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23315,7 +24319,7 @@
         <v>3255.196969660003</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23348,7 +24352,7 @@
         <v>3250.018469660003</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23381,7 +24385,7 @@
         <v>3250.018469660003</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23414,7 +24418,7 @@
         <v>3292.821569660003</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23447,7 +24451,7 @@
         <v>3292.821569660003</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23579,7 +24583,7 @@
         <v>3379.021669660003</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23612,7 +24616,7 @@
         <v>3489.937669660003</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23645,7 +24649,7 @@
         <v>4278.005969660003</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23678,7 +24682,7 @@
         <v>4278.005969660003</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23711,7 +24715,7 @@
         <v>4343.923369660003</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23744,7 +24748,7 @@
         <v>4343.923369660003</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23777,7 +24781,7 @@
         <v>4409.382869660003</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23810,7 +24814,7 @@
         <v>4457.534669660003</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23843,7 +24847,7 @@
         <v>4457.534669660003</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23876,7 +24880,7 @@
         <v>4455.664969660002</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23909,7 +24913,7 @@
         <v>4395.387269660003</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23942,7 +24946,7 @@
         <v>4372.646369660003</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23975,7 +24979,7 @@
         <v>4387.957569660003</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24008,7 +25012,7 @@
         <v>4388.257069660003</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24041,7 +25045,7 @@
         <v>4317.889569660003</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24074,7 +25078,7 @@
         <v>4346.703769660003</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24107,7 +25111,7 @@
         <v>4466.942369660002</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24140,7 +25144,7 @@
         <v>4038.113469660002</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24173,7 +25177,7 @@
         <v>4050.113469660002</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24206,7 +25210,7 @@
         <v>4014.393869660003</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24239,7 +25243,7 @@
         <v>4011.565869660003</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24272,7 +25276,7 @@
         <v>3858.422269660003</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24305,7 +25309,7 @@
         <v>3859.422269660003</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24338,7 +25342,7 @@
         <v>3792.311469660003</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24371,7 +25375,7 @@
         <v>3830.755769660003</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24668,7 +25672,7 @@
         <v>3777.126569660003</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25592,7 +26596,7 @@
         <v>3222.457665800003</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25625,7 +26629,7 @@
         <v>3227.367665800003</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25658,7 +26662,7 @@
         <v>3227.367665800003</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25691,7 +26695,7 @@
         <v>3224.367665800003</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26186,7 +27190,7 @@
         <v>3641.194288060002</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26219,7 +27223,7 @@
         <v>3614.734988060002</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26252,7 +27256,7 @@
         <v>3452.037588060002</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26285,7 +27289,7 @@
         <v>3452.037588060002</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26318,7 +27322,7 @@
         <v>3576.440488060002</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26351,7 +27355,7 @@
         <v>3581.490988060002</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26384,7 +27388,7 @@
         <v>3620.988088060002</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26417,7 +27421,7 @@
         <v>3563.088188060002</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26450,7 +27454,7 @@
         <v>3411.214580220002</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26483,7 +27487,7 @@
         <v>3474.302580220002</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26516,7 +27520,7 @@
         <v>3388.223680220002</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26549,7 +27553,7 @@
         <v>3408.825280220002</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26582,7 +27586,7 @@
         <v>3562.957580220002</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26615,7 +27619,7 @@
         <v>3511.998680220001</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26648,7 +27652,7 @@
         <v>3878.701780220002</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26681,7 +27685,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26714,7 +27718,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26747,7 +27751,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26780,7 +27784,7 @@
         <v>4477.385872440002</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26813,7 +27817,7 @@
         <v>4311.887172440001</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26846,7 +27850,7 @@
         <v>4288.982272440001</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26879,7 +27883,7 @@
         <v>4288.982272440001</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26912,7 +27916,7 @@
         <v>4419.896865440001</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26945,7 +27949,7 @@
         <v>4417.698965440001</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26978,7 +27982,7 @@
         <v>4419.153565440001</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27011,7 +28015,7 @@
         <v>4418.406165440001</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27044,7 +28048,7 @@
         <v>4561.849165440001</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27077,7 +28081,7 @@
         <v>4567.455565440001</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27110,7 +28114,7 @@
         <v>4640.609665440001</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27143,7 +28147,7 @@
         <v>4567.851265440001</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27176,7 +28180,7 @@
         <v>4558.756565440001</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27209,7 +28213,7 @@
         <v>4558.756565440001</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27242,7 +28246,7 @@
         <v>4609.628803370001</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27275,7 +28279,7 @@
         <v>4609.628865440001</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27308,7 +28312,7 @@
         <v>4577.223465440002</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27341,7 +28345,7 @@
         <v>4577.223465440002</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27374,7 +28378,7 @@
         <v>4881.577865440002</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27407,7 +28411,7 @@
         <v>4684.201365440002</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27440,7 +28444,7 @@
         <v>4887.745472120002</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27473,7 +28477,7 @@
         <v>4968.850272120002</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27506,7 +28510,7 @@
         <v>4999.986272120002</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27539,7 +28543,7 @@
         <v>4999.736272120002</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27572,7 +28576,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27605,7 +28609,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27638,7 +28642,7 @@
         <v>5052.203572120003</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27671,7 +28675,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27704,7 +28708,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27737,7 +28741,7 @@
         <v>5041.522904280003</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27770,7 +28774,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27803,7 +28807,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27836,7 +28840,7 @@
         <v>4953.267904280004</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27869,7 +28873,7 @@
         <v>5088.124804280003</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27902,7 +28906,7 @@
         <v>5001.817404280004</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27935,7 +28939,7 @@
         <v>5063.607004280004</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27968,7 +28972,7 @@
         <v>5054.758604280004</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28001,7 +29005,7 @@
         <v>5082.419504280004</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28034,7 +29038,7 @@
         <v>5102.287504280004</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28067,7 +29071,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28100,7 +29104,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28133,7 +29137,7 @@
         <v>5193.537804280004</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28166,7 +29170,7 @@
         <v>5343.453704280004</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28199,7 +29203,7 @@
         <v>5312.818804280004</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28232,7 +29236,7 @@
         <v>5199.136240180004</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28265,7 +29269,7 @@
         <v>5216.016940180004</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28298,7 +29302,7 @@
         <v>5230.081940180004</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28331,7 +29335,7 @@
         <v>5233.703140180003</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28364,7 +29368,7 @@
         <v>5249.163583020003</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28397,7 +29401,7 @@
         <v>5261.899183020003</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28430,7 +29434,7 @@
         <v>5697.944883020003</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28463,7 +29467,7 @@
         <v>6074.699883020003</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28496,7 +29500,7 @@
         <v>6244.771683020002</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28529,7 +29533,7 @@
         <v>6338.503683020002</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28540,6 +29544,6 @@
       <c r="M806" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LTC.xlsx
+++ b/BackTest/2020-01-15 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-167.68066225</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-168.03066225</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>56000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-149.29156225</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-149.29156225</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>56050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-186.54076225</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-186.54076225</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>56000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-186.54076225</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-184.13996225</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>56000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-1187.21876225</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>56200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-1187.21876225</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>56100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-1227.21876225</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-1227.21876225</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>56050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -921,7 +855,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -5944,9 +5878,11 @@
         <v>-677.6332383499997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>56600</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -7239,18 +7175,16 @@
         <v>508.2056592000005</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
@@ -7280,11 +7214,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +7247,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7280,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +7313,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7428,11 +7346,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7465,11 +7379,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7502,11 +7412,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7539,11 +7445,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7576,11 +7478,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7613,11 +7511,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7544,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7687,11 +7577,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +7610,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7761,11 +7643,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +7676,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7709,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7742,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7775,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7946,11 +7808,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +7841,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7874,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +7907,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8094,11 +7940,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7973,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8168,11 +8006,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8201,15 +8035,11 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8238,15 +8068,11 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8275,15 +8101,11 @@
         <v>3134.506703700001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8312,15 +8134,11 @@
         <v>3263.587559200001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8349,15 +8167,11 @@
         <v>3681.171067560001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8386,15 +8200,11 @@
         <v>3136.741667560001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8423,15 +8233,11 @@
         <v>3085.590467560001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8460,15 +8266,11 @@
         <v>3080.722395990001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8497,15 +8299,11 @@
         <v>2798.529395990001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8534,15 +8332,11 @@
         <v>3048.872495990001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8571,15 +8365,11 @@
         <v>3198.318995990001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8608,15 +8398,11 @@
         <v>3107.533295990001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8645,15 +8431,11 @@
         <v>3123.557295990001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8682,15 +8464,11 @@
         <v>3031.660195990001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8719,15 +8497,11 @@
         <v>3037.045095990001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8756,15 +8530,11 @@
         <v>3017.801995990001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8793,15 +8563,11 @@
         <v>2529.51299599</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8830,15 +8596,11 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8867,15 +8629,11 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8904,15 +8662,11 @@
         <v>1647.595095990001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8941,15 +8695,11 @@
         <v>1915.916395990001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8978,15 +8728,11 @@
         <v>1770.413795990001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9015,15 +8761,11 @@
         <v>1962.76479599</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9052,15 +8794,11 @@
         <v>1962.76479599</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9089,15 +8827,11 @@
         <v>1934.32309599</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9126,15 +8860,11 @@
         <v>1998.44909599</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9163,15 +8893,11 @@
         <v>1999.60499599</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9200,15 +8926,11 @@
         <v>2002.51439599</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9237,15 +8959,11 @@
         <v>2004.20799599</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9274,15 +8992,11 @@
         <v>2003.54579599</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9311,15 +9025,11 @@
         <v>2001.60899599</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9348,15 +9058,11 @@
         <v>2001.60899599</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9385,15 +9091,11 @@
         <v>2001.60899599</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9422,15 +9124,11 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9459,15 +9157,11 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9496,15 +9190,11 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9533,15 +9223,11 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9570,15 +9256,11 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9607,15 +9289,11 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9644,15 +9322,11 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9681,15 +9355,11 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9718,15 +9388,11 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9755,15 +9421,11 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9792,15 +9454,11 @@
         <v>2035.382995990001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9829,15 +9487,11 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9866,15 +9520,11 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +9557,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9944,11 +9590,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9981,11 +9623,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +9656,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10055,11 +9689,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +9722,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +9755,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +9788,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +9821,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10240,11 +9854,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10277,11 +9887,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10314,11 +9920,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +9953,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +9986,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10425,11 +10019,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10462,11 +10052,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +10085,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +10118,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +10151,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10610,11 +10184,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10217,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +10250,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10717,15 +10279,11 @@
         <v>3632.811536450001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10754,15 +10312,11 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10791,15 +10345,11 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10828,15 +10378,11 @@
         <v>3633.950336450001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10865,15 +10411,11 @@
         <v>3623.950336450001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10902,15 +10444,11 @@
         <v>3623.258636450002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10939,15 +10477,11 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10976,15 +10510,11 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +10547,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11054,11 +10580,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11087,15 +10609,11 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11124,15 +10642,11 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11165,11 +10679,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11202,11 +10712,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11239,11 +10745,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11276,11 +10778,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11313,11 +10811,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +10844,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11387,11 +10877,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +10910,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11461,11 +10943,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11498,11 +10976,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11535,11 +11009,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11042,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11609,11 +11075,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11646,11 +11108,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11679,15 +11137,11 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11716,15 +11170,11 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11753,15 +11203,11 @@
         <v>3818.243629050002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11790,15 +11236,11 @@
         <v>3973.278329050002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11827,15 +11269,11 @@
         <v>3940.943429050002</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11864,15 +11302,11 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11901,15 +11335,11 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11938,15 +11368,11 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11975,15 +11401,11 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12012,15 +11434,11 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +11471,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12086,15 +11500,11 @@
         <v>4706.459429050003</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12123,15 +11533,11 @@
         <v>4566.761629050003</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12160,15 +11566,11 @@
         <v>4590.043229050003</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12197,15 +11599,11 @@
         <v>4575.626829050003</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12234,15 +11632,11 @@
         <v>4617.986229050003</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12271,15 +11665,11 @@
         <v>4617.268529050003</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12308,15 +11698,11 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12345,15 +11731,11 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12382,15 +11764,11 @@
         <v>4611.390216730003</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12419,15 +11797,11 @@
         <v>4646.734016730003</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12456,15 +11830,11 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12493,15 +11863,11 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12530,15 +11896,11 @@
         <v>4927.082116730003</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12567,15 +11929,11 @@
         <v>5335.934549230003</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12604,15 +11962,11 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12641,15 +11995,11 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12678,15 +12028,11 @@
         <v>5021.534349230003</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12715,15 +12061,11 @@
         <v>5104.876538030004</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12752,15 +12094,11 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12789,15 +12127,11 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12826,15 +12160,11 @@
         <v>5029.699999170004</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12863,15 +12193,11 @@
         <v>5062.237399170004</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12900,15 +12226,11 @@
         <v>5121.991399170004</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12937,15 +12259,11 @@
         <v>5116.354299170004</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12974,15 +12292,11 @@
         <v>5117.826719900004</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13011,15 +12325,11 @@
         <v>5183.409219900004</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13048,15 +12358,11 @@
         <v>5219.551686560004</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13085,15 +12391,11 @@
         <v>5119.072186560004</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13122,15 +12424,11 @@
         <v>5120.417086560004</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13159,15 +12457,11 @@
         <v>4733.278386560003</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13196,15 +12490,11 @@
         <v>4549.090786560003</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13233,15 +12523,11 @@
         <v>4553.590786560003</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13270,15 +12556,11 @@
         <v>4575.589786560003</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13307,15 +12589,11 @@
         <v>2616.491986560003</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13348,11 +12626,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13385,11 +12659,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13418,15 +12688,11 @@
         <v>1881.078886560003</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13459,11 +12725,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13496,11 +12758,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13533,11 +12791,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13570,11 +12824,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13607,11 +12857,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13644,11 +12890,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13681,11 +12923,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13718,11 +12956,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13755,11 +12989,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13792,11 +13022,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13829,11 +13055,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +13088,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +13121,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13940,11 +13154,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13977,11 +13187,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +13220,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14051,11 +13253,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14088,11 +13286,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14125,11 +13319,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +13352,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14199,11 +13385,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14236,11 +13418,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14273,11 +13451,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14310,11 +13484,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14347,11 +13517,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14384,11 +13550,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14421,11 +13583,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14458,11 +13616,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14495,11 +13649,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14532,11 +13682,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14569,11 +13715,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14606,11 +13748,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14643,11 +13781,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14676,15 +13810,11 @@
         <v>856.1542865600024</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14713,15 +13843,11 @@
         <v>656.1542865600024</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14750,15 +13876,11 @@
         <v>648.8492865600025</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14791,11 +13913,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14824,15 +13942,11 @@
         <v>538.0245865600025</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14865,11 +13979,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14898,15 +14008,11 @@
         <v>494.4725865600025</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14935,15 +14041,11 @@
         <v>499.3055865600025</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14972,15 +14074,11 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15009,15 +14107,11 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15046,15 +14140,11 @@
         <v>514.3002865600025</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15083,15 +14173,11 @@
         <v>472.7279865600025</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15120,15 +14206,11 @@
         <v>473.4169865600026</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15161,11 +14243,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15198,11 +14276,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +14309,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15272,11 +14342,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15305,15 +14371,11 @@
         <v>393.4942654900025</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15346,11 +14408,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15383,11 +14441,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15420,11 +14474,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +14507,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15494,11 +14540,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15531,11 +14573,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15568,11 +14606,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15605,11 +14639,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15642,11 +14672,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15679,11 +14705,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15716,11 +14738,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15753,11 +14771,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15790,11 +14804,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15827,11 +14837,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15864,11 +14870,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15901,11 +14903,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15938,11 +14936,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15975,11 +14969,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16012,11 +15002,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16049,11 +15035,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16086,11 +15068,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16123,11 +15101,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16160,11 +15134,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16197,11 +15167,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16234,11 +15200,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16271,11 +15233,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16308,11 +15266,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16345,11 +15299,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16382,11 +15332,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16419,11 +15365,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +15398,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16493,11 +15431,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16530,11 +15464,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16567,11 +15497,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16604,11 +15530,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16641,11 +15563,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16678,11 +15596,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16715,11 +15629,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16752,11 +15662,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16789,11 +15695,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16826,11 +15728,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16863,11 +15761,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16900,11 +15794,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16937,11 +15827,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16974,11 +15860,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17011,11 +15893,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17048,11 +15926,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17085,11 +15959,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17122,11 +15992,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17159,11 +16025,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17196,11 +16058,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17233,11 +16091,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17270,11 +16124,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17307,11 +16157,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17344,11 +16190,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17381,11 +16223,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17418,11 +16256,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17455,11 +16289,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17492,11 +16322,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17529,11 +16355,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17566,11 +16388,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17603,11 +16421,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +16454,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +16487,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17714,11 +16520,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17751,11 +16553,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17788,11 +16586,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17825,11 +16619,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17862,11 +16652,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17899,11 +16685,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17936,11 +16718,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17973,11 +16751,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18010,11 +16784,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18047,11 +16817,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18084,11 +16850,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18121,11 +16883,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18158,11 +16916,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18195,11 +16949,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18232,11 +16982,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18269,11 +17015,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18306,11 +17048,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18343,11 +17081,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18380,11 +17114,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18417,11 +17147,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18454,11 +17180,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18491,11 +17213,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18528,11 +17246,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18565,11 +17279,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18602,11 +17312,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18639,11 +17345,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18676,11 +17378,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18713,11 +17411,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18750,11 +17444,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18787,11 +17477,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18824,11 +17510,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18861,11 +17543,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +17576,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18935,11 +17609,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18972,11 +17642,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19009,11 +17675,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19046,11 +17708,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19083,11 +17741,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19120,11 +17774,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19157,11 +17807,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19194,11 +17840,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19231,11 +17873,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19268,11 +17906,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19305,11 +17939,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19342,11 +17972,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19379,11 +18005,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19416,11 +18038,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19453,11 +18071,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19490,11 +18104,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19527,11 +18137,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19564,11 +18170,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19601,11 +18203,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19638,11 +18236,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19675,11 +18269,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19712,11 +18302,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19749,11 +18335,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19786,11 +18368,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19823,11 +18401,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19860,11 +18434,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19897,11 +18467,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19934,11 +18500,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19971,11 +18533,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20008,11 +18566,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20045,11 +18599,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20082,11 +18632,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +18665,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20156,11 +18698,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20193,11 +18731,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20230,11 +18764,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20267,11 +18797,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20304,11 +18830,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20341,11 +18863,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20378,11 +18896,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20415,11 +18929,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20452,11 +18962,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20489,11 +18995,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20526,11 +19028,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20563,11 +19061,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20600,11 +19094,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20637,11 +19127,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20674,11 +19160,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20711,11 +19193,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20748,11 +19226,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20785,11 +19259,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20822,11 +19292,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20859,11 +19325,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20896,11 +19358,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20933,11 +19391,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20970,11 +19424,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21007,11 +19457,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21044,11 +19490,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21081,11 +19523,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21118,11 +19556,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21155,11 +19589,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21192,11 +19622,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21229,11 +19655,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21266,11 +19688,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21303,11 +19721,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +19754,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21377,11 +19787,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21414,11 +19820,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21451,11 +19853,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21488,11 +19886,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21525,11 +19919,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21562,11 +19952,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21599,11 +19985,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21636,11 +20018,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21673,11 +20051,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21710,11 +20084,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21743,16 +20113,14 @@
         <v>3502.656169380003</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
       <c r="M570" t="inlineStr"/>
     </row>
     <row r="571">
@@ -21811,7 +20179,7 @@
         <v>3499.269569380003</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21844,7 +20212,7 @@
         <v>3164.865769380003</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21877,7 +20245,7 @@
         <v>3494.010569380003</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21910,7 +20278,7 @@
         <v>3682.212369380003</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21943,7 +20311,7 @@
         <v>3746.291969380003</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21976,7 +20344,7 @@
         <v>3646.291969380003</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22009,7 +20377,7 @@
         <v>3644.041969380003</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22042,7 +20410,7 @@
         <v>3735.964969380003</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22075,7 +20443,7 @@
         <v>3685.767469380003</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22108,7 +20476,7 @@
         <v>3816.613169380003</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22141,7 +20509,7 @@
         <v>3836.666269380003</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22174,7 +20542,7 @@
         <v>3836.632969380003</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22207,7 +20575,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22240,7 +20608,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22273,7 +20641,7 @@
         <v>3843.349669380003</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -24484,7 +22852,7 @@
         <v>3324.827569660003</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24517,7 +22885,7 @@
         <v>3323.911469660003</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24550,7 +22918,7 @@
         <v>3375.902869660003</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24583,7 +22951,7 @@
         <v>3379.021669660003</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -27289,7 +25657,7 @@
         <v>3452.037588060002</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27322,7 +25690,7 @@
         <v>3576.440488060002</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27388,7 +25756,7 @@
         <v>3620.988088060002</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27652,7 +26020,7 @@
         <v>3878.701780220002</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27685,7 +26053,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27718,7 +26086,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27751,7 +26119,7 @@
         <v>4370.373580220002</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27784,7 +26152,7 @@
         <v>4477.385872440002</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27817,7 +26185,7 @@
         <v>4311.887172440001</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27850,7 +26218,7 @@
         <v>4288.982272440001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27883,7 +26251,7 @@
         <v>4288.982272440001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27916,7 +26284,7 @@
         <v>4419.896865440001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27949,7 +26317,7 @@
         <v>4417.698965440001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27982,7 +26350,7 @@
         <v>4419.153565440001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28015,7 +26383,7 @@
         <v>4418.406165440001</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28048,7 +26416,7 @@
         <v>4561.849165440001</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28081,7 +26449,7 @@
         <v>4567.455565440001</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28114,7 +26482,7 @@
         <v>4640.609665440001</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28147,7 +26515,7 @@
         <v>4567.851265440001</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28180,7 +26548,7 @@
         <v>4558.756565440001</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28213,7 +26581,7 @@
         <v>4558.756565440001</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28246,7 +26614,7 @@
         <v>4609.628803370001</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28279,7 +26647,7 @@
         <v>4609.628865440001</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28312,7 +26680,7 @@
         <v>4577.223465440002</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28345,7 +26713,7 @@
         <v>4577.223465440002</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28378,7 +26746,7 @@
         <v>4881.577865440002</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28411,7 +26779,7 @@
         <v>4684.201365440002</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28444,7 +26812,7 @@
         <v>4887.745472120002</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28477,7 +26845,7 @@
         <v>4968.850272120002</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28510,7 +26878,7 @@
         <v>4999.986272120002</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28543,7 +26911,7 @@
         <v>4999.736272120002</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28576,7 +26944,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28609,7 +26977,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28642,7 +27010,7 @@
         <v>5052.203572120003</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28675,7 +27043,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28708,7 +27076,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28741,7 +27109,7 @@
         <v>5041.522904280003</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28774,7 +27142,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28807,7 +27175,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28840,7 +27208,7 @@
         <v>4953.267904280004</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28873,7 +27241,7 @@
         <v>5088.124804280003</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28906,7 +27274,7 @@
         <v>5001.817404280004</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28939,7 +27307,7 @@
         <v>5063.607004280004</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28972,7 +27340,7 @@
         <v>5054.758604280004</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29005,7 +27373,7 @@
         <v>5082.419504280004</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29038,7 +27406,7 @@
         <v>5102.287504280004</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29071,7 +27439,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29104,7 +27472,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29137,7 +27505,7 @@
         <v>5193.537804280004</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29170,7 +27538,7 @@
         <v>5343.453704280004</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29203,7 +27571,7 @@
         <v>5312.818804280004</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29236,7 +27604,7 @@
         <v>5199.136240180004</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29269,7 +27637,7 @@
         <v>5216.016940180004</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29302,7 +27670,7 @@
         <v>5230.081940180004</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29335,7 +27703,7 @@
         <v>5233.703140180003</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29368,7 +27736,7 @@
         <v>5249.163583020003</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29401,7 +27769,7 @@
         <v>5261.899183020003</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29434,7 +27802,7 @@
         <v>5697.944883020003</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29467,7 +27835,7 @@
         <v>6074.699883020003</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29500,7 +27868,7 @@
         <v>6244.771683020002</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29533,7 +27901,7 @@
         <v>6338.503683020002</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29544,6 +27912,6 @@
       <c r="M806" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>